--- a/publication-sce/Scholar_URLs.xlsx
+++ b/publication-sce/Scholar_URLs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\win10\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ish/Desktop/current-git-sce-projects/carleton-projects/publication-sce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB402DE-A0A7-4CDE-8027-95BA4E432080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61874F8C-276E-FC44-8927-0CC78309C65D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3EE43833-06A3-4E0F-909C-2A8E42568070}"/>
+    <workbookView xWindow="3320" yWindow="3680" windowWidth="23260" windowHeight="12720" xr2:uid="{3EE43833-06A3-4E0F-909C-2A8E42568070}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="212">
   <si>
     <t>Adler</t>
   </si>
@@ -666,13 +666,16 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they do not have a Google scholar Id associated with them </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,8 +691,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,6 +710,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,13 +733,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1042,19 +1063,19 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="58.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>207</v>
       </c>
@@ -1071,962 +1092,965 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>65</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C14" t="s">
         <v>69</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D14" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" t="s">
+        <v>206</v>
+      </c>
+      <c r="E44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C45" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="E50" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" t="s">
-        <v>161</v>
-      </c>
-      <c r="E41" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" t="s">
-        <v>169</v>
-      </c>
-      <c r="E45" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" t="s">
-        <v>172</v>
-      </c>
-      <c r="E46" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" t="s">
-        <v>176</v>
-      </c>
-      <c r="E48" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" t="s">
-        <v>180</v>
-      </c>
-      <c r="E50" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>193</v>
-      </c>
-      <c r="B52" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" t="s">
-        <v>195</v>
-      </c>
-      <c r="E52" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" t="s">
-        <v>184</v>
-      </c>
-      <c r="E53" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>185</v>
-      </c>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B60" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B56" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" t="s">
-        <v>191</v>
-      </c>
-      <c r="E56" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" t="s">
-        <v>198</v>
-      </c>
-      <c r="E57" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" t="s">
-        <v>201</v>
-      </c>
-      <c r="E58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>202</v>
-      </c>
-      <c r="B59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" t="s">
-        <v>204</v>
-      </c>
-      <c r="E59" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" t="s">
-        <v>206</v>
-      </c>
-      <c r="E60" t="s">
-        <v>205</v>
+      <c r="C60" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E63">
-    <sortCondition ref="B1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E60">
+    <sortCondition ref="D1:D60"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{586AD63E-BF73-49D1-BF0A-C077323229B1}"/>
-    <hyperlink ref="A8" r:id="rId2" display="https://carleton.ca/sce/people/atia/" xr:uid="{9BF87160-9E1D-4782-A278-0A6109CBC5A7}"/>
-    <hyperlink ref="A9" r:id="rId3" display="https://carleton.ca/sce/people/bailetti/" xr:uid="{604B7948-819E-447C-AEFA-C9673E83B967}"/>
-    <hyperlink ref="A10" r:id="rId4" display="https://carleton.ca/sce/people/bailey/" xr:uid="{8C3E098E-104D-4197-AF91-24FF79308D0C}"/>
-    <hyperlink ref="A12" r:id="rId5" display="https://carleton.ca/sce/people/buhr/" xr:uid="{8DF30BC2-9C31-4665-A6CA-119F3987A0BC}"/>
-    <hyperlink ref="A13" r:id="rId6" display="https://carleton.ca/sce/people/chan/" xr:uid="{30BE0447-1C91-4165-AB42-F7B6BE5D243F}"/>
-    <hyperlink ref="A15" r:id="rId7" display="https://carleton.ca/sce/people/coll/" xr:uid="{1F5931EE-C775-4E3E-8683-368009262AB2}"/>
-    <hyperlink ref="A16" r:id="rId8" display="https://carleton.ca/sce/people/dansereau/" xr:uid="{4A064A32-45C6-475C-AC43-578BE6ED97F4}"/>
-    <hyperlink ref="E2" r:id="rId9" xr:uid="{9BC25961-67BE-4ED7-A410-3E0C6E9DB59E}"/>
-    <hyperlink ref="A17" r:id="rId10" display="https://carleton.ca/sce/people/el-tanany/" xr:uid="{985ACD90-EAA0-4802-AB98-93460349B1A1}"/>
-    <hyperlink ref="A18" r:id="rId11" display="https://carleton.ca/sce/people/esfandiari/" xr:uid="{C29B17DC-CBF8-45E1-8C8E-1D7CB35FAEDB}"/>
-    <hyperlink ref="A19" r:id="rId12" display="https://carleton.ca/sce/people/falconer/" xr:uid="{426D08E9-5099-4F04-8322-1045AE976C0E}"/>
-    <hyperlink ref="A20" r:id="rId13" display="https://carleton.ca/sce/people/franks/" xr:uid="{0CE158A9-B448-48C1-9E84-1E13BE9C4F5A}"/>
-    <hyperlink ref="A21" r:id="rId14" display="https://carleton.ca/sce/people/frize/" xr:uid="{972CF0E5-975E-4CE8-B3C1-2661AEBFC953}"/>
-    <hyperlink ref="A22" r:id="rId15" display="https://carleton.ca/sce/people/garcia/" xr:uid="{3AB8DC1B-5E3C-4CDA-B7A8-8FC763095007}"/>
-    <hyperlink ref="A24" r:id="rId16" display="https://carleton.ca/sce/people/goubran/" xr:uid="{7BF98ACF-EC70-40E7-B1F5-63503EE6663F}"/>
-    <hyperlink ref="A25" r:id="rId17" display="https://carleton.ca/sce/people/green/" xr:uid="{1EC01095-781A-4779-97F8-23749441CC48}"/>
-    <hyperlink ref="A26" r:id="rId18" display="https://carleton.ca/sce/people/hafez/" xr:uid="{8F78D624-11E5-4A05-8C40-5B01181B4A47}"/>
-    <hyperlink ref="A27" r:id="rId19" display="https://carleton.ca/sce/people/huang/" xr:uid="{9F14FF6E-A8C7-4EB4-BA7F-888CE797CA81}"/>
-    <hyperlink ref="A28" r:id="rId20" display="https://carleton.ca/sce/people/ibnkahla/" xr:uid="{F40BB766-1A97-45F8-945F-F4EC6F39AB21}"/>
-    <hyperlink ref="A29" r:id="rId21" display="https://carleton.ca/sce/people/jaskolka/" xr:uid="{46F68FD6-7C57-4F0B-97BD-4BC4FCEACC92}"/>
-    <hyperlink ref="A30" r:id="rId22" display="https://carleton.ca/sce/people/joslin/" xr:uid="{1B533150-5231-4035-B4F6-1F348D0439FC}"/>
-    <hyperlink ref="A33" r:id="rId23" display="https://carleton.ca/sce/people/lambadaris/" xr:uid="{A40B9E9D-EA0C-40C9-90A9-00D6F9CD69DA}"/>
-    <hyperlink ref="A34" r:id="rId24" display="https://carleton.ca/sce/people/liu/" xr:uid="{C269A718-E7B5-4F4F-A5E9-553D9196816E}"/>
-    <hyperlink ref="A35" r:id="rId25" display="https://carleton.ca/sce/people/lung/" xr:uid="{9516530E-0616-4DBE-A5E0-5CA7A6A17948}"/>
-    <hyperlink ref="A37" r:id="rId26" display="https://carleton.ca/sce/people/majumdar/" xr:uid="{F6A19FC4-7FFA-47E3-A77B-0CA8D6984E61}"/>
-    <hyperlink ref="A38" r:id="rId27" display="https://carleton.ca/sce/people/marsland/" xr:uid="{48513F38-7C92-41E1-A78C-CBC3ACF442FF}"/>
-    <hyperlink ref="A40" r:id="rId28" display="https://carleton.ca/sce/people/morris/" xr:uid="{81DF3C52-4166-4948-BD9C-F74206C1AD01}"/>
-    <hyperlink ref="A41" r:id="rId29" display="https://carleton.ca/sce/people/mostaco-guidolin/" xr:uid="{B35869CB-9A54-4B14-A5D9-3F85C2A781F4}"/>
-    <hyperlink ref="A43" r:id="rId30" display="https://carleton.ca/sce/people/pagurek/" xr:uid="{2C13AC03-042D-4E93-87D8-091E75000D96}"/>
-    <hyperlink ref="A44" r:id="rId31" display="https://carleton.ca/sce/people/pearce/" xr:uid="{B075ADD7-CCDC-4516-B85D-548FC30DA3AD}"/>
-    <hyperlink ref="A45" r:id="rId32" display="https://carleton.ca/sce/people/petriu/" xr:uid="{96DED8E4-9F67-4CBB-B19F-C3FFF4E08E6B}"/>
-    <hyperlink ref="A46" r:id="rId33" display="https://carleton.ca/sce/people/rajan/" xr:uid="{EEBE74AE-79B6-4BFF-8B01-1CA27271611A}"/>
-    <hyperlink ref="A47" r:id="rId34" display="https://carleton.ca/sce/people/riordon/" xr:uid="{178E4B3B-6D91-475E-B21A-2AF413D34DD2}"/>
-    <hyperlink ref="A48" r:id="rId35" display="https://carleton.ca/sce/people/ruiz/" xr:uid="{9A5C9482-E391-4242-B9B5-1804F16F47EE}"/>
-    <hyperlink ref="A49" r:id="rId36" display="https://carleton.ca/sce/people/schramm/" xr:uid="{C7E5DD71-EB35-453C-895D-5C12C035FE6A}"/>
-    <hyperlink ref="A50" r:id="rId37" display="https://carleton.ca/sce/people/schwartz/" xr:uid="{B2DCEFD3-E195-439B-B406-C169D2E2B8EE}"/>
-    <hyperlink ref="A51" r:id="rId38" display="https://carleton.ca/sce/people/sheikh/" xr:uid="{5971BAA3-F4D8-4324-B7E0-DBE623A43D86}"/>
-    <hyperlink ref="A53" r:id="rId39" display="https://carleton.ca/sce/people/st-hilaire/" xr:uid="{E15EF149-298B-43E7-A262-3D60C7A9D1A9}"/>
-    <hyperlink ref="A55" r:id="rId40" display="https://carleton.ca/sce/people/talim/" xr:uid="{5587E5B5-1B26-4A76-84F2-E43AEE35B0A9}"/>
-    <hyperlink ref="A56" r:id="rId41" display="https://carleton.ca/sce/people/wainer/" xr:uid="{9EB507DE-7BAC-4AA2-AA8C-49564DDCA8A7}"/>
-    <hyperlink ref="A57" r:id="rId42" display="https://carleton.ca/sce/people/weiss/" xr:uid="{EB015418-55AC-422E-8AFA-C5C53289BE1E}"/>
-    <hyperlink ref="A58" r:id="rId43" display="https://carleton.ca/sce/people/woodside/" xr:uid="{299BA924-032E-4257-9A59-76B31E27C646}"/>
-    <hyperlink ref="A60" r:id="rId44" display="https://carleton.ca/sce/people/yu/" xr:uid="{84D8D28E-73C5-4613-8FE5-E65E0FD5737F}"/>
+    <hyperlink ref="E14" r:id="rId1" xr:uid="{586AD63E-BF73-49D1-BF0A-C077323229B1}"/>
+    <hyperlink ref="A35" r:id="rId2" display="https://carleton.ca/sce/people/atia/" xr:uid="{9BF87160-9E1D-4782-A278-0A6109CBC5A7}"/>
+    <hyperlink ref="A46" r:id="rId3" display="https://carleton.ca/sce/people/bailetti/" xr:uid="{604B7948-819E-447C-AEFA-C9673E83B967}"/>
+    <hyperlink ref="A47" r:id="rId4" display="https://carleton.ca/sce/people/bailey/" xr:uid="{8C3E098E-104D-4197-AF91-24FF79308D0C}"/>
+    <hyperlink ref="A48" r:id="rId5" display="https://carleton.ca/sce/people/buhr/" xr:uid="{8DF30BC2-9C31-4665-A6CA-119F3987A0BC}"/>
+    <hyperlink ref="A23" r:id="rId6" display="https://carleton.ca/sce/people/chan/" xr:uid="{30BE0447-1C91-4165-AB42-F7B6BE5D243F}"/>
+    <hyperlink ref="A49" r:id="rId7" display="https://carleton.ca/sce/people/coll/" xr:uid="{1F5931EE-C775-4E3E-8683-368009262AB2}"/>
+    <hyperlink ref="A32" r:id="rId8" display="https://carleton.ca/sce/people/dansereau/" xr:uid="{4A064A32-45C6-475C-AC43-578BE6ED97F4}"/>
+    <hyperlink ref="E8" r:id="rId9" xr:uid="{9BC25961-67BE-4ED7-A410-3E0C6E9DB59E}"/>
+    <hyperlink ref="A50" r:id="rId10" display="https://carleton.ca/sce/people/el-tanany/" xr:uid="{985ACD90-EAA0-4802-AB98-93460349B1A1}"/>
+    <hyperlink ref="A2" r:id="rId11" display="https://carleton.ca/sce/people/esfandiari/" xr:uid="{C29B17DC-CBF8-45E1-8C8E-1D7CB35FAEDB}"/>
+    <hyperlink ref="A51" r:id="rId12" display="https://carleton.ca/sce/people/falconer/" xr:uid="{426D08E9-5099-4F04-8322-1045AE976C0E}"/>
+    <hyperlink ref="A11" r:id="rId13" display="https://carleton.ca/sce/people/franks/" xr:uid="{0CE158A9-B448-48C1-9E84-1E13BE9C4F5A}"/>
+    <hyperlink ref="A52" r:id="rId14" display="https://carleton.ca/sce/people/frize/" xr:uid="{972CF0E5-975E-4CE8-B3C1-2661AEBFC953}"/>
+    <hyperlink ref="A21" r:id="rId15" display="https://carleton.ca/sce/people/garcia/" xr:uid="{3AB8DC1B-5E3C-4CDA-B7A8-8FC763095007}"/>
+    <hyperlink ref="A15" r:id="rId16" display="https://carleton.ca/sce/people/goubran/" xr:uid="{7BF98ACF-EC70-40E7-B1F5-63503EE6663F}"/>
+    <hyperlink ref="A24" r:id="rId17" display="https://carleton.ca/sce/people/green/" xr:uid="{1EC01095-781A-4779-97F8-23749441CC48}"/>
+    <hyperlink ref="A36" r:id="rId18" display="https://carleton.ca/sce/people/hafez/" xr:uid="{8F78D624-11E5-4A05-8C40-5B01181B4A47}"/>
+    <hyperlink ref="A34" r:id="rId19" display="https://carleton.ca/sce/people/huang/" xr:uid="{9F14FF6E-A8C7-4EB4-BA7F-888CE797CA81}"/>
+    <hyperlink ref="A31" r:id="rId20" display="https://carleton.ca/sce/people/ibnkahla/" xr:uid="{F40BB766-1A97-45F8-945F-F4EC6F39AB21}"/>
+    <hyperlink ref="A33" r:id="rId21" display="https://carleton.ca/sce/people/jaskolka/" xr:uid="{46F68FD6-7C57-4F0B-97BD-4BC4FCEACC92}"/>
+    <hyperlink ref="A5" r:id="rId22" display="https://carleton.ca/sce/people/joslin/" xr:uid="{1B533150-5231-4035-B4F6-1F348D0439FC}"/>
+    <hyperlink ref="A7" r:id="rId23" display="https://carleton.ca/sce/people/lambadaris/" xr:uid="{A40B9E9D-EA0C-40C9-90A9-00D6F9CD69DA}"/>
+    <hyperlink ref="A28" r:id="rId24" display="https://carleton.ca/sce/people/liu/" xr:uid="{C269A718-E7B5-4F4F-A5E9-553D9196816E}"/>
+    <hyperlink ref="A39" r:id="rId25" display="https://carleton.ca/sce/people/lung/" xr:uid="{9516530E-0616-4DBE-A5E0-5CA7A6A17948}"/>
+    <hyperlink ref="A19" r:id="rId26" display="https://carleton.ca/sce/people/majumdar/" xr:uid="{F6A19FC4-7FFA-47E3-A77B-0CA8D6984E61}"/>
+    <hyperlink ref="A40" r:id="rId27" display="https://carleton.ca/sce/people/marsland/" xr:uid="{48513F38-7C92-41E1-A78C-CBC3ACF442FF}"/>
+    <hyperlink ref="A54" r:id="rId28" display="https://carleton.ca/sce/people/morris/" xr:uid="{81DF3C52-4166-4948-BD9C-F74206C1AD01}"/>
+    <hyperlink ref="A4" r:id="rId29" display="https://carleton.ca/sce/people/mostaco-guidolin/" xr:uid="{B35869CB-9A54-4B14-A5D9-3F85C2A781F4}"/>
+    <hyperlink ref="A55" r:id="rId30" display="https://carleton.ca/sce/people/pagurek/" xr:uid="{2C13AC03-042D-4E93-87D8-091E75000D96}"/>
+    <hyperlink ref="A56" r:id="rId31" display="https://carleton.ca/sce/people/pearce/" xr:uid="{B075ADD7-CCDC-4516-B85D-548FC30DA3AD}"/>
+    <hyperlink ref="A25" r:id="rId32" display="https://carleton.ca/sce/people/petriu/" xr:uid="{96DED8E4-9F67-4CBB-B19F-C3FFF4E08E6B}"/>
+    <hyperlink ref="A22" r:id="rId33" display="https://carleton.ca/sce/people/rajan/" xr:uid="{EEBE74AE-79B6-4BFF-8B01-1CA27271611A}"/>
+    <hyperlink ref="A57" r:id="rId34" display="https://carleton.ca/sce/people/riordon/" xr:uid="{178E4B3B-6D91-475E-B21A-2AF413D34DD2}"/>
+    <hyperlink ref="A37" r:id="rId35" display="https://carleton.ca/sce/people/ruiz/" xr:uid="{9A5C9482-E391-4242-B9B5-1804F16F47EE}"/>
+    <hyperlink ref="A58" r:id="rId36" display="https://carleton.ca/sce/people/schramm/" xr:uid="{C7E5DD71-EB35-453C-895D-5C12C035FE6A}"/>
+    <hyperlink ref="A9" r:id="rId37" display="https://carleton.ca/sce/people/schwartz/" xr:uid="{B2DCEFD3-E195-439B-B406-C169D2E2B8EE}"/>
+    <hyperlink ref="A59" r:id="rId38" display="https://carleton.ca/sce/people/sheikh/" xr:uid="{5971BAA3-F4D8-4324-B7E0-DBE623A43D86}"/>
+    <hyperlink ref="A27" r:id="rId39" display="https://carleton.ca/sce/people/st-hilaire/" xr:uid="{E15EF149-298B-43E7-A262-3D60C7A9D1A9}"/>
+    <hyperlink ref="A60" r:id="rId40" display="https://carleton.ca/sce/people/talim/" xr:uid="{5587E5B5-1B26-4A76-84F2-E43AEE35B0A9}"/>
+    <hyperlink ref="A13" r:id="rId41" display="https://carleton.ca/sce/people/wainer/" xr:uid="{9EB507DE-7BAC-4AA2-AA8C-49564DDCA8A7}"/>
+    <hyperlink ref="A3" r:id="rId42" display="https://carleton.ca/sce/people/weiss/" xr:uid="{EB015418-55AC-422E-8AFA-C5C53289BE1E}"/>
+    <hyperlink ref="A20" r:id="rId43" display="https://carleton.ca/sce/people/woodside/" xr:uid="{299BA924-032E-4257-9A59-76B31E27C646}"/>
+    <hyperlink ref="A44" r:id="rId44" display="https://carleton.ca/sce/people/yu/" xr:uid="{84D8D28E-73C5-4613-8FE5-E65E0FD5737F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
